--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H2">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N2">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q2">
-        <v>29.83939247110434</v>
+        <v>152.0351102942607</v>
       </c>
       <c r="R2">
-        <v>268.554532239939</v>
+        <v>1368.315992648346</v>
       </c>
       <c r="S2">
-        <v>0.1477657289696117</v>
+        <v>0.2378857262184327</v>
       </c>
       <c r="T2">
-        <v>0.1477657289696117</v>
+        <v>0.2378857262184327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H3">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N3">
         <v>0.161336</v>
       </c>
       <c r="O3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q3">
-        <v>8.347192628438222</v>
+        <v>12.08854641390045</v>
       </c>
       <c r="R3">
-        <v>75.12473365594398</v>
+        <v>108.796917725104</v>
       </c>
       <c r="S3">
-        <v>0.04133559370504485</v>
+        <v>0.01891466146885477</v>
       </c>
       <c r="T3">
-        <v>0.04133559370504485</v>
+        <v>0.01891466146885477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H4">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N4">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O4">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P4">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q4">
-        <v>32.34014590304489</v>
+        <v>84.00301950929777</v>
       </c>
       <c r="R4">
-        <v>291.061313127404</v>
+        <v>756.02717558368</v>
       </c>
       <c r="S4">
-        <v>0.1601495485866429</v>
+        <v>0.1314375295406014</v>
       </c>
       <c r="T4">
-        <v>0.1601495485866429</v>
+        <v>0.1314375295406014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>738.543487</v>
       </c>
       <c r="I5">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J5">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N5">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q5">
-        <v>47.32758991509634</v>
+        <v>166.5078294992603</v>
       </c>
       <c r="R5">
-        <v>425.948309235867</v>
+        <v>1498.570465493343</v>
       </c>
       <c r="S5">
-        <v>0.2343679024615287</v>
+        <v>0.2605308462290226</v>
       </c>
       <c r="T5">
-        <v>0.2343679024615287</v>
+        <v>0.2605308462290226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>738.543487</v>
       </c>
       <c r="I6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,16 +803,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N6">
         <v>0.161336</v>
       </c>
       <c r="O6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q6">
         <v>13.23929466873689</v>
@@ -821,10 +821,10 @@
         <v>119.153652018632</v>
       </c>
       <c r="S6">
-        <v>0.06556145637562301</v>
+        <v>0.02071520993273612</v>
       </c>
       <c r="T6">
-        <v>0.06556145637562301</v>
+        <v>0.02071520993273612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>738.543487</v>
       </c>
       <c r="I7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N7">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O7">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P7">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q7">
-        <v>51.29397874222356</v>
+        <v>91.99954157171555</v>
       </c>
       <c r="R7">
-        <v>461.6458086800121</v>
+        <v>827.99587414544</v>
       </c>
       <c r="S7">
-        <v>0.2540096004949232</v>
+        <v>0.1439494976929458</v>
       </c>
       <c r="T7">
-        <v>0.2540096004949232</v>
+        <v>0.1439494976929458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H8">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I8">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J8">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N8">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q8">
-        <v>8.225117564158001</v>
+        <v>72.84100594673099</v>
       </c>
       <c r="R8">
-        <v>74.02605807742201</v>
+        <v>655.569053520579</v>
       </c>
       <c r="S8">
-        <v>0.04073107366061542</v>
+        <v>0.11397259201892</v>
       </c>
       <c r="T8">
-        <v>0.04073107366061543</v>
+        <v>0.1139725920189201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H9">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I9">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J9">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N9">
         <v>0.161336</v>
       </c>
       <c r="O9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q9">
-        <v>2.300872605434666</v>
+        <v>5.791700874344</v>
       </c>
       <c r="R9">
-        <v>20.707853448912</v>
+        <v>52.12530786909601</v>
       </c>
       <c r="S9">
-        <v>0.0113940026807684</v>
+        <v>0.009062136804233073</v>
       </c>
       <c r="T9">
-        <v>0.0113940026807684</v>
+        <v>0.009062136804233074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H10">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I10">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J10">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N10">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O10">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P10">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q10">
-        <v>8.914440947554667</v>
+        <v>40.24639066448</v>
       </c>
       <c r="R10">
-        <v>80.229968527992</v>
+        <v>362.21751598032</v>
       </c>
       <c r="S10">
-        <v>0.0441446274835374</v>
+        <v>0.06297257161428188</v>
       </c>
       <c r="T10">
-        <v>0.04414462748353741</v>
+        <v>0.06297257161428189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H11">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I11">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J11">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N11">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q11">
-        <v>0.04617644775333334</v>
+        <v>0.218995517592</v>
       </c>
       <c r="R11">
-        <v>0.41558802978</v>
+        <v>1.970959658328</v>
       </c>
       <c r="S11">
-        <v>0.000228667405682136</v>
+        <v>0.0003426570851964653</v>
       </c>
       <c r="T11">
-        <v>0.000228667405682136</v>
+        <v>0.0003426570851964653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H12">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I12">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J12">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N12">
         <v>0.161336</v>
       </c>
       <c r="O12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q12">
-        <v>0.01291727720888889</v>
+        <v>0.017412671808</v>
       </c>
       <c r="R12">
-        <v>0.11625549488</v>
+        <v>0.156714046272</v>
       </c>
       <c r="S12">
-        <v>6.396681450275442E-05</v>
+        <v>2.72451940241443E-05</v>
       </c>
       <c r="T12">
-        <v>6.396681450275442E-05</v>
+        <v>2.72451940241443E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H13">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I13">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J13">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N13">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O13">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P13">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q13">
-        <v>0.05004636267555557</v>
+        <v>0.12100023936</v>
       </c>
       <c r="R13">
-        <v>0.45041726408</v>
+        <v>1.08900215424</v>
       </c>
       <c r="S13">
-        <v>0.0002478313615195848</v>
+        <v>0.000189326200750909</v>
       </c>
       <c r="T13">
-        <v>0.0002478313615195848</v>
+        <v>0.000189326200750909</v>
       </c>
     </row>
   </sheetData>
